--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.877313</v>
+        <v>1.175812333333333</v>
       </c>
       <c r="H2">
-        <v>5.631939</v>
+        <v>3.527437</v>
       </c>
       <c r="I2">
-        <v>0.09253425024289272</v>
+        <v>0.03376012282223818</v>
       </c>
       <c r="J2">
-        <v>0.0925342502428927</v>
+        <v>0.03376012282223818</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N2">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q2">
-        <v>0.07501304708300001</v>
+        <v>0.02173528291911111</v>
       </c>
       <c r="R2">
-        <v>0.675117423747</v>
+        <v>0.195617546272</v>
       </c>
       <c r="S2">
-        <v>0.0004918131485788747</v>
+        <v>5.486701678032249E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004918131485788747</v>
+        <v>5.486701678032248E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.877313</v>
+        <v>1.175812333333333</v>
       </c>
       <c r="H3">
-        <v>5.631939</v>
+        <v>3.527437</v>
       </c>
       <c r="I3">
-        <v>0.09253425024289272</v>
+        <v>0.03376012282223818</v>
       </c>
       <c r="J3">
-        <v>0.0925342502428927</v>
+        <v>0.03376012282223818</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.092074</v>
       </c>
       <c r="O3">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P3">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q3">
-        <v>0.057617239054</v>
+        <v>0.03608724825977778</v>
       </c>
       <c r="R3">
-        <v>0.5185551514860001</v>
+        <v>0.324785234338</v>
       </c>
       <c r="S3">
-        <v>0.0003777598278365546</v>
+        <v>9.109610687809097E-05</v>
       </c>
       <c r="T3">
-        <v>0.0003777598278365546</v>
+        <v>9.109610687809094E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.877313</v>
+        <v>1.175812333333333</v>
       </c>
       <c r="H4">
-        <v>5.631939</v>
+        <v>3.527437</v>
       </c>
       <c r="I4">
-        <v>0.09253425024289272</v>
+        <v>0.03376012282223818</v>
       </c>
       <c r="J4">
-        <v>0.0925342502428927</v>
+        <v>0.03376012282223818</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N4">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O4">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P4">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q4">
-        <v>13.981014479802</v>
+        <v>13.31607428306256</v>
       </c>
       <c r="R4">
-        <v>125.829130318218</v>
+        <v>119.844668547563</v>
       </c>
       <c r="S4">
-        <v>0.09166467726647728</v>
+        <v>0.03361415969857977</v>
       </c>
       <c r="T4">
-        <v>0.09166467726647728</v>
+        <v>0.03361415969857977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>11.042502</v>
       </c>
       <c r="I5">
-        <v>0.1814312341407894</v>
+        <v>0.1056847291063769</v>
       </c>
       <c r="J5">
-        <v>0.1814312341407894</v>
+        <v>0.1056847291063769</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N5">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O5">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P5">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q5">
-        <v>0.1470775380273334</v>
+        <v>0.06804144343466668</v>
       </c>
       <c r="R5">
-        <v>1.323697842246</v>
+        <v>0.6123729909120001</v>
       </c>
       <c r="S5">
-        <v>0.0009642944777648553</v>
+        <v>0.0001717590257546045</v>
       </c>
       <c r="T5">
-        <v>0.0009642944777648554</v>
+        <v>0.0001717590257546044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>11.042502</v>
       </c>
       <c r="I6">
-        <v>0.1814312341407894</v>
+        <v>0.1056847291063769</v>
       </c>
       <c r="J6">
-        <v>0.1814312341407894</v>
+        <v>0.1056847291063769</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.092074</v>
       </c>
       <c r="O6">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P6">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q6">
         <v>0.1129697032386667</v>
@@ -818,10 +818,10 @@
         <v>1.016727329148</v>
       </c>
       <c r="S6">
-        <v>0.0007406709579782043</v>
+        <v>0.0002851727592565178</v>
       </c>
       <c r="T6">
-        <v>0.0007406709579782044</v>
+        <v>0.0002851727592565177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>11.042502</v>
       </c>
       <c r="I7">
-        <v>0.1814312341407894</v>
+        <v>0.1056847291063769</v>
       </c>
       <c r="J7">
-        <v>0.1814312341407894</v>
+        <v>0.1056847291063769</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N7">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O7">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P7">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q7">
-        <v>27.41247381323601</v>
+        <v>41.68544382305534</v>
       </c>
       <c r="R7">
-        <v>246.712264319124</v>
+        <v>375.1689944074981</v>
       </c>
       <c r="S7">
-        <v>0.1797262687050463</v>
+        <v>0.1052277973213658</v>
       </c>
       <c r="T7">
-        <v>0.1797262687050464</v>
+        <v>0.1052277973213658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.72961666666667</v>
+        <v>29.97179133333333</v>
       </c>
       <c r="H8">
-        <v>44.18885</v>
+        <v>89.915374</v>
       </c>
       <c r="I8">
-        <v>0.7260345156163179</v>
+        <v>0.8605551480713849</v>
       </c>
       <c r="J8">
-        <v>0.7260345156163179</v>
+        <v>0.8605551480713849</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N8">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O8">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P8">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q8">
-        <v>0.5885611128944445</v>
+        <v>0.5540385533937778</v>
       </c>
       <c r="R8">
-        <v>5.297050016050001</v>
+        <v>4.986346980544001</v>
       </c>
       <c r="S8">
-        <v>0.003858823302343937</v>
+        <v>0.001398575887837819</v>
       </c>
       <c r="T8">
-        <v>0.003858823302343938</v>
+        <v>0.001398575887837819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.72961666666667</v>
+        <v>29.97179133333333</v>
       </c>
       <c r="H9">
-        <v>44.18885</v>
+        <v>89.915374</v>
       </c>
       <c r="I9">
-        <v>0.7260345156163179</v>
+        <v>0.8605551480713849</v>
       </c>
       <c r="J9">
-        <v>0.7260345156163179</v>
+        <v>0.8605551480713849</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.092074</v>
       </c>
       <c r="O9">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P9">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q9">
-        <v>0.4520715749888889</v>
+        <v>0.9198742384084444</v>
       </c>
       <c r="R9">
-        <v>4.0686441749</v>
+        <v>8.278868145676</v>
       </c>
       <c r="S9">
-        <v>0.002963947650763855</v>
+        <v>0.002322065715103493</v>
       </c>
       <c r="T9">
-        <v>0.002963947650763856</v>
+        <v>0.002322065715103493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.72961666666667</v>
+        <v>29.97179133333333</v>
       </c>
       <c r="H10">
-        <v>44.18885</v>
+        <v>89.915374</v>
       </c>
       <c r="I10">
-        <v>0.7260345156163179</v>
+        <v>0.8605551480713849</v>
       </c>
       <c r="J10">
-        <v>0.7260345156163179</v>
+        <v>0.8605551480713849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N10">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O10">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P10">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q10">
-        <v>109.6966696009667</v>
+        <v>339.430526859403</v>
       </c>
       <c r="R10">
-        <v>987.2700264087001</v>
+        <v>3054.874741734626</v>
       </c>
       <c r="S10">
-        <v>0.7192117446632101</v>
+        <v>0.8568345064684436</v>
       </c>
       <c r="T10">
-        <v>0.7192117446632103</v>
+        <v>0.8568345064684435</v>
       </c>
     </row>
   </sheetData>
